--- a/Manual_Scenarios_TestCases-Share'.xlsx
+++ b/Manual_Scenarios_TestCases-Share'.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyanka.a.tyagi\Documents\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyanka.a.tyagi\Documents\Personal\Protractor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -67,14 +67,6 @@
     <t>http://blubox.shoppinpal.com/s eller/</t>
   </si>
   <si>
-    <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
-2. Verify the following:
-a. User name is displaying correctly
-b. User's E-mail address is displaying correctly
-c. User can't edit these details
-d. Various tabs are present like: Products, Catalog, Gallery, Contact</t>
-  </si>
-  <si>
     <t>a. User name should be displaying correctly
 b. User's E-mail address should be displaying correctly
 c. User shouldn't be able to edit these details
@@ -142,6 +134,17 @@
   </si>
   <si>
     <t>Validate Share to Contact Functionality for Catalog Module- Negative Testing</t>
+  </si>
+  <si>
+    <t>Verify Share to Contact menu at footer</t>
+  </si>
+  <si>
+    <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
+2. Navigate to Product module. Verify the following:
+a. User is able to see thumbnails in the selected layout.
+b. User's E-mail address is displaying correctly
+c. User can't edit these details
+d. Various tabs are present like: Products, Catalog, Gallery, Contact</t>
   </si>
   <si>
     <r>
@@ -162,11 +165,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">while sharing contact delete contact,  </t>
+      <t xml:space="preserve">while sharing to contact try to delete contact, while sharing to contact change layout,  while sharing to contact do a search, while sharing to contact put filter,  </t>
     </r>
-  </si>
-  <si>
-    <t>Verify Share to Contact menu at footer</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,13 +613,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,16 +655,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,16 +686,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,16 +717,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,16 +734,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -797,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -805,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -820,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Manual_Scenarios_TestCases-Share'.xlsx
+++ b/Manual_Scenarios_TestCases-Share'.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Step Number</t>
   </si>
@@ -67,12 +67,6 @@
     <t>http://blubox.shoppinpal.com/s eller/</t>
   </si>
   <si>
-    <t>a. User name should be displaying correctly
-b. User's E-mail address should be displaying correctly
-c. User shouldn't be able to edit these details
-d. Various tabs should be present like: Products, Catalog, Gallery, Contact</t>
-  </si>
-  <si>
     <t>Worksheet_Tab</t>
   </si>
   <si>
@@ -137,14 +131,6 @@
   </si>
   <si>
     <t>Verify Share to Contact menu at footer</t>
-  </si>
-  <si>
-    <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
-2. Navigate to Product module. Verify the following:
-a. User is able to see thumbnails in the selected layout.
-b. User's E-mail address is displaying correctly
-c. User can't edit these details
-d. Various tabs are present like: Products, Catalog, Gallery, Contact</t>
   </si>
   <si>
     <r>
@@ -167,6 +153,14 @@
       </rPr>
       <t xml:space="preserve">while sharing to contact try to delete contact, while sharing to contact change layout,  while sharing to contact do a search, while sharing to contact put filter,  </t>
     </r>
+  </si>
+  <si>
+    <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
+2. Navigate to Product module. Verify the following:
+a. User is able to see thumbnails in the selected layout
+b. User is able to see checkbox over upper left corner of thumbnails
+c. User is able to see options tag over upper roght corner of thumbnails
+d. Various details for thumbnails are present</t>
   </si>
 </sst>
 </file>
@@ -598,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -613,13 +607,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,13 +621,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,13 +635,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,16 +649,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,16 +680,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -703,13 +697,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,16 +711,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,16 +728,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -756,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -822,9 +816,7 @@
       <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Manual_Scenarios_TestCases-Share'.xlsx
+++ b/Manual_Scenarios_TestCases-Share'.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>Step Number</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Validate Share to Contact Functionality for Catalog Module- Negative Testing</t>
-  </si>
-  <si>
-    <t>Verify Share to Contact menu at footer</t>
   </si>
   <si>
     <r>
@@ -157,6 +154,23 @@
   <si>
     <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
 2. Navigate to Product module. Verify the following:
+a. User is able to see thumbnails in the selected layout
+b. User is able to see checkbox over upper left corner of thumbnails
+c. User is able to see options tag over upper roght corner of thumbnails
+d. Various details for thumbnails are present</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Verify Share to Contact menu at footer- Product Module</t>
+  </si>
+  <si>
+    <t>Verify Share to Contact menu at footer- Catalog Module</t>
+  </si>
+  <si>
+    <t>1. Log in to "http://blubox.shoppinpal.com/s eller/" website
+2. Navigate to Catalog module. Verify the following:
 a. User is able to see thumbnails in the selected layout
 b. User is able to see checkbox over upper left corner of thumbnails
 c. User is able to see options tag over upper roght corner of thumbnails
@@ -720,7 +734,7 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -737,7 +751,7 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -814,9 +828,35 @@
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
